--- a/StructureDefinition-profile-MessageDefinition.xlsx
+++ b/StructureDefinition-profile-MessageDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="363">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7413429-06:00</t>
+    <t>2026-02-09T22:05:43.2183758-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,38 +422,87 @@
     <t>MessageDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MessageDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `MessageDefinition.versionAlgorithm[x]` is will have a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MessageDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `MessageDefinition.copyrightLabel` is will have a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
+  </si>
+  <si>
+    <t>MessageDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MessageDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -897,6 +946,9 @@
     <t>MessageDefinition.focus.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -950,17 +1002,10 @@
     <t>MessageDefinition.focus.code.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>MessageDefinition.focus.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus.code|0.0.1-snapshot-3}
@@ -970,8 +1015,7 @@
     <t>Cross-version extension for MessageDefinition.focus.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `MessageDefinition.focus.code` is mapped to FHIR R4 element `MessageDefinition.focus.code`.</t>
   </si>
   <si>
     <t>MessageDefinition.focus.code.value</t>
@@ -1408,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1419,7 +1463,7 @@
   <cols>
     <col min="1" max="1" width="45.56640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1427,7 +1471,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2410,7 +2454,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2429,17 +2473,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2476,16 +2518,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2506,7 +2546,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2523,43 +2563,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2607,7 +2647,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2616,7 +2656,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2625,7 +2665,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2639,12 +2679,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2662,23 +2704,21 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2726,19 +2766,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2747,10 +2787,10 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -2758,14 +2798,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2778,25 +2818,25 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2845,7 +2885,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2857,22 +2897,22 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -2903,18 +2943,20 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3008,7 +3050,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3020,19 +3062,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3087,10 +3129,10 @@
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
@@ -3102,21 +3144,21 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3139,16 +3181,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3198,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3219,10 +3261,10 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3230,10 +3272,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3244,7 +3286,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3256,16 +3298,20 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3313,16 +3359,16 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3345,10 +3391,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3356,7 +3402,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3365,22 +3411,22 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3406,34 +3452,34 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3451,10 +3497,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3462,10 +3508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3476,7 +3522,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3488,20 +3534,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3549,13 +3591,13 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -3570,10 +3612,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3581,14 +3623,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3601,22 +3643,22 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3642,13 +3684,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3666,7 +3708,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -3724,16 +3766,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>209</v>
@@ -3824,14 +3866,14 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3843,16 +3885,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3905,10 +3947,10 @@
         <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3923,10 +3965,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3934,10 +3976,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3960,18 +4002,20 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4019,7 +4063,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4040,10 +4084,10 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4051,10 +4095,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4077,20 +4121,18 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4138,7 +4180,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4159,7 +4201,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4170,10 +4212,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4184,7 +4226,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4196,16 +4238,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4231,13 +4273,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4255,13 +4297,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4276,7 +4318,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4287,10 +4329,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4301,7 +4343,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4313,7 +4355,7 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>241</v>
@@ -4324,7 +4366,9 @@
       <c r="N25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4372,13 +4416,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4393,13 +4437,13 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -4411,14 +4455,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4427,10 +4471,10 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>248</v>
@@ -4438,10 +4482,10 @@
       <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
       </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4465,13 +4509,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4495,7 +4539,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4510,21 +4554,21 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4547,15 +4591,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4604,7 +4650,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4625,32 +4671,32 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4659,21 +4705,21 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4721,13 +4767,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4742,21 +4788,21 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4764,7 +4810,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4779,13 +4825,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4812,13 +4858,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4836,10 +4882,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
@@ -4868,10 +4914,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4882,7 +4928,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4894,15 +4940,17 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4927,37 +4975,37 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -4983,10 +5031,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4994,10 +5042,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5009,13 +5057,13 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5042,13 +5090,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5066,19 +5114,19 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -5098,10 +5146,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5121,16 +5169,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5157,13 +5205,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5181,7 +5229,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5193,13 +5241,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5213,14 +5261,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5236,20 +5284,18 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5298,7 +5344,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5310,13 +5356,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5330,46 +5376,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5417,25 +5459,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5449,21 +5491,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5472,19 +5514,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5510,13 +5552,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5534,25 +5576,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5566,42 +5608,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5649,25 +5695,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5681,10 +5727,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5695,7 +5741,7 @@
         <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5704,18 +5750,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5740,41 +5788,43 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5794,10 +5844,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5805,7 +5855,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5820,17 +5870,15 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5879,19 +5927,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5911,10 +5959,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5922,10 +5970,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5937,13 +5985,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5982,31 +6030,29 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6026,18 +6072,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6052,20 +6100,18 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6113,19 +6159,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6145,10 +6191,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6156,7 +6202,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6168,16 +6214,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6228,10 +6274,10 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>88</v>
@@ -6240,7 +6286,7 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6260,10 +6306,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6286,16 +6332,20 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6343,7 +6393,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6352,7 +6402,7 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>100</v>
@@ -6375,10 +6425,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6386,7 +6436,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6398,20 +6448,18 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6424,7 +6472,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -6436,34 +6484,34 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6475,7 +6523,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6492,10 +6540,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6506,7 +6554,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6518,17 +6566,15 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6577,16 +6623,16 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -6609,10 +6655,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6635,15 +6681,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6656,7 +6704,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -6668,13 +6716,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6692,7 +6740,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6704,13 +6752,13 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6724,14 +6772,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6750,16 +6798,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6809,7 +6857,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6821,13 +6869,13 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6841,46 +6889,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6928,25 +6972,25 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -6960,21 +7004,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -6986,15 +7030,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7043,25 +7089,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7075,42 +7121,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7158,25 +7208,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7190,10 +7240,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7201,10 +7251,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7216,13 +7266,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7273,13 +7323,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7300,6 +7350,236 @@
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MessageDefinition.xlsx
+++ b/StructureDefinition-profile-MessageDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2183758-06:00</t>
+    <t>2026-02-17T14:42:26.8553276-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `MessageDefinition.versionAlgorithm[x]` is will have a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
+    <t>Element `MessageDefinition.versionAlgorithm[x]` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -485,7 +485,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `MessageDefinition.copyrightLabel` is will have a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
+    <t>Element `MessageDefinition.copyrightLabel` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
   </si>
   <si>
     <t>MessageDefinition.modifierExtension</t>
@@ -946,13 +946,23 @@
     <t>MessageDefinition.focus.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.focus.extension:focus</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageDefinition.focus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageDefinition.focus` has is mapped to FHIR R4 element `MessageDefinition.focus`, but has no comparisons.</t>
   </si>
   <si>
     <t>MessageDefinition.focus.modifierExtension</t>
@@ -990,43 +1000,6 @@
     <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
-    <t>MessageDefinition.focus.code.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>MessageDefinition.focus.code.extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.focus.code.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus.code|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageDefinition.focus.code from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageDefinition.focus.code` is mapped to FHIR R4 element `MessageDefinition.focus.code`.</t>
-  </si>
-  <si>
-    <t>MessageDefinition.focus.code.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>MessageDefinition.focus.profile</t>
   </si>
   <si>
@@ -1112,6 +1085,22 @@
   </si>
   <si>
     <t>MessageDefinition.allowedResponse.extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.allowedResponse.extension:allowedResponse</t>
+  </si>
+  <si>
+    <t>allowedResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.allowedResponse|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageDefinition.allowedResponse from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageDefinition.allowedResponse` has is mapped to FHIR R4 element `MessageDefinition.allowedResponse`, but has no comparisons.</t>
   </si>
   <si>
     <t>MessageDefinition.allowedResponse.modifierExtension</t>
@@ -1452,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1461,9 +1450,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.29296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.94140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1471,7 +1460,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5498,7 +5487,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5520,14 +5509,12 @@
         <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5564,19 +5551,17 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5594,7 +5579,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5608,14 +5593,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5628,26 +5615,24 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5695,7 +5680,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5704,7 +5689,7 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>138</v>
@@ -5713,7 +5698,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5727,44 +5712,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5788,13 +5775,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5812,25 +5799,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5844,10 +5831,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5855,7 +5842,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5867,18 +5854,20 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5903,13 +5892,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5927,10 +5916,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -5939,7 +5928,7 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5970,11 +5959,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5985,16 +5974,20 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6030,29 +6023,31 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6072,14 +6067,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6097,20 +6090,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6159,19 +6150,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6191,10 +6182,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6220,10 +6211,10 @@
         <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6274,7 +6265,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6283,10 +6274,10 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6306,10 +6297,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6332,20 +6323,18 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6357,7 +6346,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6369,13 +6358,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6393,7 +6382,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6408,7 +6397,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6425,10 +6414,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6436,10 +6425,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6448,18 +6437,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6508,13 +6499,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6540,10 +6531,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6569,10 +6560,10 @@
         <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6623,7 +6614,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6632,16 +6623,16 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6655,10 +6646,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6669,7 +6660,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6681,17 +6672,15 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6704,7 +6693,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -6716,46 +6705,44 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -6772,12 +6759,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6798,16 +6787,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6857,7 +6846,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6866,10 +6855,10 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6889,42 +6878,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6972,25 +6965,25 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7004,21 +6997,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7030,17 +7023,15 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7089,25 +7080,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7128,39 +7119,35 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7208,25 +7195,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7240,10 +7227,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7251,10 +7238,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7266,13 +7253,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7323,13 +7310,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7350,236 +7337,6 @@
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MessageDefinition.xlsx
+++ b/StructureDefinition-profile-MessageDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8553276-06:00</t>
+    <t>2026-02-20T11:59:20.8857602-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MessageDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MessageDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,13 +446,33 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>MessageDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `MessageDefinition.copyrightLabel` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
+  </si>
+  <si>
     <t>MessageDefinition.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -462,30 +482,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `MessageDefinition.versionAlgorithm[x]` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>MessageDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `MessageDefinition.copyrightLabel` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `MessageDefinition.versionAlgorithm[x]` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
   </si>
   <si>
     <t>MessageDefinition.modifierExtension</t>
@@ -955,7 +953,7 @@
     <t>focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus}
 </t>
   </si>
   <si>
@@ -963,6 +961,10 @@
   </si>
   <si>
     <t>Element `MessageDefinition.focus` has is mapped to FHIR R4 element `MessageDefinition.focus`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>MessageDefinition.focus.modifierExtension</t>
@@ -1093,7 +1095,7 @@
     <t>allowedResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.allowedResponse|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.allowedResponse}
 </t>
   </si>
   <si>
@@ -1460,7 +1462,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.59765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2645,7 +2647,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2668,13 +2670,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2696,16 +2698,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2764,7 +2766,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>138</v>
@@ -2787,14 +2789,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2816,16 +2818,16 @@
         <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2874,7 +2876,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2906,10 +2908,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2935,16 +2937,16 @@
         <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2993,7 +2995,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3014,10 +3016,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -3025,10 +3027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3051,19 +3053,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3112,7 +3114,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3133,21 +3135,21 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3170,16 +3172,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3229,7 +3231,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3250,10 +3252,10 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3261,10 +3263,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3287,19 +3289,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3348,7 +3350,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3357,7 +3359,7 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3380,10 +3382,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3406,16 +3408,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3465,7 +3467,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3486,7 +3488,7 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3497,10 +3499,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3523,13 +3525,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3580,7 +3582,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3612,10 +3614,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3641,13 +3643,13 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3673,14 +3675,14 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -3718,10 +3720,10 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3729,10 +3731,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3755,19 +3757,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3816,7 +3818,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3837,10 +3839,10 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -3848,14 +3850,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3874,16 +3876,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3933,7 +3935,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -3954,10 +3956,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3965,10 +3967,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3991,19 +3993,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4052,7 +4054,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4073,10 +4075,10 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4084,10 +4086,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4110,16 +4112,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4169,7 +4171,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4190,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4201,10 +4203,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4227,16 +4229,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4286,7 +4288,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4307,7 +4309,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4318,10 +4320,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4344,19 +4346,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4405,7 +4407,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4426,7 +4428,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4437,10 +4439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4463,16 +4465,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4498,14 +4500,14 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4543,7 +4545,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4554,10 +4556,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4580,16 +4582,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4639,7 +4641,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4660,25 +4662,25 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AO27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4697,17 +4699,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4756,7 +4758,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4777,21 +4779,21 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4814,13 +4816,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4871,7 +4873,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4903,10 +4905,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4929,16 +4931,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4988,7 +4990,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5020,10 +5022,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5046,13 +5048,13 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5079,14 +5081,14 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5135,10 +5137,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5164,10 +5166,10 @@
         <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5194,14 +5196,14 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5250,10 +5252,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5276,13 +5278,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5333,7 +5335,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5345,7 +5347,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5365,10 +5367,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5391,13 +5393,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5448,7 +5450,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5466,7 +5468,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5480,10 +5482,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5561,7 +5563,7 @@
         <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5593,13 +5595,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
@@ -5621,16 +5623,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5680,7 +5682,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5689,7 +5691,7 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>138</v>
@@ -5747,10 +5749,10 @@
         <v>307</v>
       </c>
       <c r="N37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5892,7 +5894,7 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>313</v>
@@ -6208,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>326</v>
@@ -6358,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>334</v>
@@ -6440,7 +6442,7 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>338</v>
@@ -6557,13 +6559,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6614,7 +6616,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6632,7 +6634,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6727,7 +6729,7 @@
         <v>136</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6846,7 +6848,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6855,7 +6857,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>138</v>
@@ -6913,10 +6915,10 @@
         <v>307</v>
       </c>
       <c r="N47" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7023,7 +7025,7 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>350</v>
@@ -7138,7 +7140,7 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>353</v>

--- a/StructureDefinition-profile-MessageDefinition.xlsx
+++ b/StructureDefinition-profile-MessageDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8857602-06:00</t>
+    <t>2026-02-21T13:36:54.2902347-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MessageDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MessageDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -422,21 +422,21 @@
     <t>MessageDefinition.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -446,51 +446,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MessageDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `MessageDefinition.copyrightLabel` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
-  </si>
-  <si>
-    <t>MessageDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `MessageDefinition.versionAlgorithm[x]` has a context of MessageDefinition based on following the parent source element upwards and mapping to `MessageDefinition`.</t>
-  </si>
-  <si>
     <t>MessageDefinition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -498,9 +454,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -944,62 +897,99 @@
     <t>MessageDefinition.focus.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MessageDefinition.focus.extension:focus</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus}
+    <t>MessageDefinition.focus.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.focus.code</t>
+  </si>
+  <si>
+    <t>Type of resource</t>
+  </si>
+  <si>
+    <t>The kind of resource that must be the focus for this message.</t>
+  </si>
+  <si>
+    <t>Multiple focuses addressing different resources may occasionally occur.  E.g. to link or unlink a resource from a particular account or encounter, etc.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>MessageDefinition.focus.code.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>MessageDefinition.focus.code.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MessageDefinition.focus from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageDefinition.focus` has is mapped to FHIR R4 element `MessageDefinition.focus`, but has no comparisons.</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>MessageDefinition.focus.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.focus.code|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageDefinition.focus.code from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageDefinition.focus.code` is mapped to FHIR R4 element `MessageDefinition.focus.code` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>MessageDefinition.focus.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.focus.code</t>
-  </si>
-  <si>
-    <t>Type of resource</t>
-  </si>
-  <si>
-    <t>The kind of resource that must be the focus for this message.</t>
-  </si>
-  <si>
-    <t>Multiple focuses addressing different resources may occasionally occur.  E.g. to link or unlink a resource from a particular account or encounter, etc.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+    <t>MessageDefinition.focus.code.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>MessageDefinition.focus.profile</t>
@@ -1087,22 +1077,6 @@
   </si>
   <si>
     <t>MessageDefinition.allowedResponse.extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.allowedResponse.extension:allowedResponse</t>
-  </si>
-  <si>
-    <t>allowedResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageDefinition.allowedResponse}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageDefinition.allowedResponse from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageDefinition.allowedResponse` has is mapped to FHIR R4 element `MessageDefinition.allowedResponse`, but has no comparisons.</t>
   </si>
   <si>
     <t>MessageDefinition.allowedResponse.modifierExtension</t>
@@ -1452,9 +1426,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.29296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.56640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1462,7 +1436,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2445,7 +2419,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2464,15 +2438,17 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2509,14 +2485,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2537,7 +2515,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2554,43 +2532,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2638,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2656,7 +2634,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2670,14 +2648,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2695,21 +2671,23 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2757,19 +2735,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2778,10 +2756,10 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -2796,7 +2774,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2809,13 +2787,13 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>153</v>
@@ -2876,7 +2854,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2888,30 +2866,30 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2934,20 +2912,18 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2995,7 +2971,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3016,10 +2992,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -3027,10 +3003,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3041,7 +3017,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3053,7 +3029,7 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3114,16 +3090,16 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
@@ -3135,21 +3111,21 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3172,16 +3148,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3231,7 +3207,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3252,10 +3228,10 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3263,10 +3239,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3277,7 +3253,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3289,20 +3265,16 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3350,16 +3322,16 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3382,10 +3354,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3393,7 +3365,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3402,22 +3374,22 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3443,13 +3415,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3467,10 +3439,10 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3488,10 +3460,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3499,10 +3471,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3513,7 +3485,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3525,16 +3497,20 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3582,13 +3558,13 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -3603,10 +3579,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3614,14 +3590,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3634,22 +3610,22 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3675,13 +3651,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3699,7 +3675,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -3720,10 +3696,10 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3731,10 +3707,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3757,7 +3733,7 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>206</v>
@@ -3766,10 +3742,10 @@
         <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3818,7 +3794,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3839,10 +3815,10 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -3850,21 +3826,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3935,13 +3911,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3959,7 +3935,7 @@
         <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3967,10 +3943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3993,7 +3969,7 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>220</v>
@@ -4004,9 +3980,7 @@
       <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4054,7 +4028,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4075,10 +4049,10 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4086,10 +4060,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4112,18 +4086,20 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4171,7 +4147,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4192,7 +4168,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4203,10 +4179,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4217,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4229,16 +4205,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4264,13 +4240,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4288,13 +4264,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4309,7 +4285,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4320,10 +4296,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4334,7 +4310,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4346,20 +4322,18 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
         <v>243</v>
       </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4407,13 +4381,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4431,29 +4405,29 @@
         <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4462,21 +4436,21 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4500,13 +4474,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4524,13 +4498,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4545,21 +4519,21 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4582,17 +4556,15 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4641,7 +4613,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4662,32 +4634,32 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4696,21 +4668,21 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4758,13 +4730,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4779,21 +4751,21 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4801,7 +4773,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4816,13 +4788,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4849,13 +4821,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4873,10 +4845,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
@@ -4905,10 +4877,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4919,7 +4891,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4931,17 +4903,15 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4966,13 +4936,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -4990,13 +4960,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5022,10 +4992,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5033,10 +5003,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5048,13 +5018,13 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5081,13 +5051,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5105,19 +5075,19 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -5137,10 +5107,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5160,16 +5130,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5196,13 +5166,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5220,25 +5190,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5252,14 +5222,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5275,18 +5245,20 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5335,7 +5307,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5347,13 +5319,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5367,42 +5339,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5450,25 +5426,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5482,10 +5458,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5493,10 +5469,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5505,18 +5481,20 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5541,41 +5519,43 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5595,14 +5575,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5611,7 +5589,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5623,17 +5601,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5682,19 +5658,19 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5714,18 +5690,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -5734,26 +5710,22 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5789,19 +5761,17 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5819,7 +5789,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5833,12 +5803,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5856,19 +5828,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5894,13 +5866,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5918,19 +5890,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5950,10 +5922,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5976,20 +5948,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6037,7 +6005,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6049,7 +6017,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6069,10 +6037,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6080,7 +6048,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6092,19 +6060,23 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6152,10 +6124,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>88</v>
@@ -6184,10 +6156,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6195,7 +6167,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6207,16 +6179,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6267,16 +6239,16 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6299,10 +6271,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6325,17 +6297,15 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6348,7 +6318,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6360,13 +6330,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6384,7 +6354,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6393,13 +6363,13 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6416,10 +6386,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6430,7 +6400,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6442,16 +6412,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6465,7 +6435,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -6477,13 +6447,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6501,13 +6471,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6516,7 +6486,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6533,10 +6503,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6547,7 +6517,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6559,15 +6529,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6616,25 +6588,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6648,10 +6620,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6662,7 +6634,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6674,13 +6646,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6719,35 +6691,37 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6761,16 +6735,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6789,16 +6761,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>347</v>
+        <v>136</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6848,7 +6820,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6857,7 +6829,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>138</v>
@@ -6866,7 +6838,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6880,14 +6852,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6906,19 +6878,19 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6967,7 +6939,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6999,10 +6971,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7025,13 +6997,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7082,7 +7054,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7114,10 +7086,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7140,13 +7112,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7197,7 +7169,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7229,10 +7201,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7255,13 +7227,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7312,7 +7284,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
